--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>uncomfortable</t>
@@ -61,60 +73,45 @@
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>false</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>false</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -145,55 +142,73 @@
     <t>good</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -554,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -673,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -723,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -773,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.88</v>
@@ -823,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7017543859649122</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,16 +909,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,31 +1006,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>4</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>12</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.4444444444444444</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,49 +1188,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6875</v>
       </c>
       <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,16 +1259,16 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.3611111111111111</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6470588235294118</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.2542372881355932</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6170212765957447</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.2349726775956284</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L18">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>840</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.572463768115942</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.1384615384615385</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>56</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5428571428571428</v>
+        <v>0.55</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.1157894736842105</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1538,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5217391304347826</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,16 +1559,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.03812316715542522</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>328</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1588,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.02592592592592593</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>526</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,13 +1638,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1644,16 +1659,16 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.02409638554216868</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1665,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>648</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1688,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.02176696542893726</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>764</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,13 +1738,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3571428571428572</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1741,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.0211038961038961</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1765,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>603</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,38 +1788,38 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3571428571428572</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="L26">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>10</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>18</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26">
-        <v>0.01324884792626728</v>
-      </c>
-      <c r="L26">
-        <v>23</v>
-      </c>
-      <c r="M26">
-        <v>23</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -1815,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1713</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1823,7 +1838,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3214285714285715</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -1841,7 +1856,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>69</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.02962962962962963</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1849,51 +1888,153 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1538461538461539</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>284</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.02932551319648094</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29">
+        <v>0.02710843373493976</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30">
+        <v>0.0211038961038961</v>
+      </c>
+      <c r="L30">
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31">
+        <v>0.01555299539170507</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32">
+        <v>0.01536491677336748</v>
+      </c>
+      <c r="L32">
         <v>12</v>
       </c>
-      <c r="D28">
+      <c r="M32">
         <v>12</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.04040404040404041</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
-      </c>
-      <c r="E29">
-        <v>0.14</v>
-      </c>
-      <c r="F29">
-        <v>0.86</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>285</v>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
